--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt16-Fzd2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.076472</v>
+        <v>0.06577466666666666</v>
       </c>
       <c r="H2">
-        <v>0.229416</v>
+        <v>0.197324</v>
       </c>
       <c r="I2">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="J2">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N2">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P2">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q2">
-        <v>0.005834711637333333</v>
+        <v>0.001741954347111111</v>
       </c>
       <c r="R2">
-        <v>0.052512404736</v>
+        <v>0.015677589124</v>
       </c>
       <c r="S2">
-        <v>0.0007133888865322579</v>
+        <v>0.0002188710781479227</v>
       </c>
       <c r="T2">
-        <v>0.0007133888865322578</v>
+        <v>0.0002188710781479227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.076472</v>
+        <v>0.06577466666666666</v>
       </c>
       <c r="H3">
-        <v>0.229416</v>
+        <v>0.197324</v>
       </c>
       <c r="I3">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="J3">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>38.984044</v>
       </c>
       <c r="O3">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P3">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q3">
-        <v>0.9937292709226666</v>
+        <v>0.8547208331395554</v>
       </c>
       <c r="R3">
-        <v>8.943563438303999</v>
+        <v>7.692487498256</v>
       </c>
       <c r="S3">
-        <v>0.1214996493677677</v>
+        <v>0.1073929810933287</v>
       </c>
       <c r="T3">
-        <v>0.1214996493677677</v>
+        <v>0.1073929810933287</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.076472</v>
+        <v>0.06577466666666666</v>
       </c>
       <c r="H4">
-        <v>0.229416</v>
+        <v>0.197324</v>
       </c>
       <c r="I4">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="J4">
-        <v>0.1736225630019018</v>
+        <v>0.1530524945763335</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>16.495119</v>
       </c>
       <c r="O4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P4">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q4">
-        <v>0.420471580056</v>
+        <v>0.361653651284</v>
       </c>
       <c r="R4">
-        <v>3.784244220504</v>
+        <v>3.254882861556</v>
       </c>
       <c r="S4">
-        <v>0.05140952474760193</v>
+        <v>0.04544064240485689</v>
       </c>
       <c r="T4">
-        <v>0.05140952474760192</v>
+        <v>0.04544064240485689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,13 +723,13 @@
         <v>0.298115</v>
       </c>
       <c r="H5">
-        <v>0.8943450000000001</v>
+        <v>0.8943449999999999</v>
       </c>
       <c r="I5">
-        <v>0.6768423785086302</v>
+        <v>0.6936902417438882</v>
       </c>
       <c r="J5">
-        <v>0.6768423785086302</v>
+        <v>0.693690241743888</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N5">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P5">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q5">
-        <v>0.02274577701333334</v>
+        <v>0.007895178288333332</v>
       </c>
       <c r="R5">
-        <v>0.20471199312</v>
+        <v>0.07105660459499999</v>
       </c>
       <c r="S5">
-        <v>0.002781043099547077</v>
+        <v>0.0009920042893221501</v>
       </c>
       <c r="T5">
-        <v>0.002781043099547077</v>
+        <v>0.0009920042893221501</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>0.298115</v>
       </c>
       <c r="H6">
-        <v>0.8943450000000001</v>
+        <v>0.8943449999999999</v>
       </c>
       <c r="I6">
-        <v>0.6768423785086302</v>
+        <v>0.6936902417438882</v>
       </c>
       <c r="J6">
-        <v>0.6768423785086302</v>
+        <v>0.693690241743888</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>38.984044</v>
       </c>
       <c r="O6">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P6">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q6">
-        <v>3.873909425686667</v>
+        <v>3.873909425686666</v>
       </c>
       <c r="R6">
         <v>34.86518483118</v>
       </c>
       <c r="S6">
-        <v>0.4736487599549123</v>
+        <v>0.4867445200579404</v>
       </c>
       <c r="T6">
-        <v>0.4736487599549124</v>
+        <v>0.4867445200579404</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>0.298115</v>
       </c>
       <c r="H7">
-        <v>0.8943450000000001</v>
+        <v>0.8943449999999999</v>
       </c>
       <c r="I7">
-        <v>0.6768423785086302</v>
+        <v>0.6936902417438882</v>
       </c>
       <c r="J7">
-        <v>0.6768423785086302</v>
+        <v>0.693690241743888</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>16.495119</v>
       </c>
       <c r="O7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P7">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q7">
         <v>1.639147466895</v>
@@ -880,10 +880,10 @@
         <v>14.752327202055</v>
       </c>
       <c r="S7">
-        <v>0.2004125754541708</v>
+        <v>0.2059537173966255</v>
       </c>
       <c r="T7">
-        <v>0.2004125754541708</v>
+        <v>0.2059537173966255</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.197588</v>
       </c>
       <c r="I8">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797784</v>
       </c>
       <c r="J8">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797783</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +924,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07629866666666667</v>
+        <v>0.02648366666666667</v>
       </c>
       <c r="N8">
-        <v>0.228896</v>
+        <v>0.07945099999999999</v>
       </c>
       <c r="O8">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477916</v>
       </c>
       <c r="P8">
-        <v>0.004108848954870246</v>
+        <v>0.001430039273477917</v>
       </c>
       <c r="Q8">
-        <v>0.005025233649777778</v>
+        <v>0.001744284909777778</v>
       </c>
       <c r="R8">
-        <v>0.045227102848</v>
+        <v>0.015698564188</v>
       </c>
       <c r="S8">
-        <v>0.0006144169687909115</v>
+        <v>0.0002191639060078437</v>
       </c>
       <c r="T8">
-        <v>0.0006144169687909115</v>
+        <v>0.0002191639060078437</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.197588</v>
       </c>
       <c r="I9">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797784</v>
       </c>
       <c r="J9">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797783</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>38.984044</v>
       </c>
       <c r="O9">
-        <v>0.6997918200668237</v>
+        <v>0.7016741634339546</v>
       </c>
       <c r="P9">
-        <v>0.6997918200668238</v>
+        <v>0.7016741634339547</v>
       </c>
       <c r="Q9">
         <v>0.8558643650968888</v>
@@ -1004,10 +1004,10 @@
         <v>7.702779285872</v>
       </c>
       <c r="S9">
-        <v>0.1046434107441437</v>
+        <v>0.1075366622826855</v>
       </c>
       <c r="T9">
-        <v>0.1046434107441437</v>
+        <v>0.1075366622826855</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.197588</v>
       </c>
       <c r="I10">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797784</v>
       </c>
       <c r="J10">
-        <v>0.149535058489468</v>
+        <v>0.1532572636797783</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>16.495119</v>
       </c>
       <c r="O10">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925674</v>
       </c>
       <c r="P10">
-        <v>0.296099330978306</v>
+        <v>0.2968957972925675</v>
       </c>
       <c r="Q10">
         <v>0.362137508108</v>
@@ -1066,10 +1066,10 @@
         <v>3.259237572972</v>
       </c>
       <c r="S10">
-        <v>0.04427723077653332</v>
+        <v>0.04550143749108504</v>
       </c>
       <c r="T10">
-        <v>0.04427723077653332</v>
+        <v>0.04550143749108504</v>
       </c>
     </row>
   </sheetData>
